--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2699178.688323519</v>
+        <v>2795848.664807893</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836241</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095089</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.1033432409561</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>142.1265188191253</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>180.8962191387197</v>
       </c>
       <c r="H5" t="n">
-        <v>40.56696428347047</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4.557008652678902</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>155.4526127311941</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>287.8888439977528</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>310.3249182951252</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.02457248166897</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>57.50343408519505</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>48.30166053897774</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>238.9556675303021</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>60.61620153653822</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1822,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>113.7626965853549</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.51522928004346</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>74.9718851370762</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>114.4535030721044</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>163.4808009529172</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2530,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>176.6622783506429</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>150.2062474346973</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>119.5949358390743</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2770,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>153.282755173626</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>38.20969874013318</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>131.3536923180823</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>73.53720539716805</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.3242343544789</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873211</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>4.444739711710331</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3484,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>59.65570400449383</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -3712,10 +3714,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>94.56373074953527</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>131.457508879773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>147.4291364622103</v>
+        <v>158.2598945289031</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -3946,22 +3948,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873203</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292541</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881755</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851108</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247718</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734093657</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414545</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>165.6570697579672</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>113.1218439574775</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004706</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314418</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>2498.558261327377</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X2" t="n">
-        <v>2498.558261327377</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y2" t="n">
-        <v>2108.418929351565</v>
+        <v>1562.681172365833</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,10 +4415,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2036.885894456657</v>
+        <v>766.0404291903644</v>
       </c>
       <c r="C5" t="n">
-        <v>1667.923377516245</v>
+        <v>397.0779122499527</v>
       </c>
       <c r="D5" t="n">
-        <v>1309.657678909495</v>
+        <v>397.0779122499527</v>
       </c>
       <c r="E5" t="n">
-        <v>923.8694263112502</v>
+        <v>397.0779122499527</v>
       </c>
       <c r="F5" t="n">
-        <v>512.8835215216427</v>
+        <v>390.1324115007492</v>
       </c>
       <c r="G5" t="n">
-        <v>94.91971341982958</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2423.485734520778</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>2423.485734520778</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y5" t="n">
-        <v>2423.485734520778</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4665,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>104.2025452963401</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>104.2025452963401</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>104.2025452963401</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>104.2025452963401</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>104.2025452963401</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>104.2025452963401</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>104.2025452963401</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>285.8510101265798</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>923.1150787952338</v>
+        <v>1735.606436744359</v>
       </c>
       <c r="C8" t="n">
-        <v>923.1150787952338</v>
+        <v>1735.606436744359</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>1735.606436744359</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>1349.818184146115</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>938.8322793565073</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>520.8684712546942</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859356</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y8" t="n">
-        <v>1309.714918859356</v>
+        <v>1735.606436744359</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4886,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>704.8718402855565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>704.8718402855565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>704.8718402855565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>477.5636529541582</v>
+        <v>670.0447073527018</v>
       </c>
       <c r="U10" t="n">
-        <v>477.5636529541582</v>
+        <v>670.0447073527018</v>
       </c>
       <c r="V10" t="n">
-        <v>222.8791647482714</v>
+        <v>670.0447073527018</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482714</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>380.6275373157412</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,25 +5041,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5066,25 +5068,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5160,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>411.3871648742117</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="C13" t="n">
-        <v>242.4509819463048</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D13" t="n">
-        <v>242.4509819463048</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1404.270953158607</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1149.58646495272</v>
+        <v>1204.104622658154</v>
       </c>
       <c r="W13" t="n">
-        <v>860.1692949157591</v>
+        <v>914.6874526211932</v>
       </c>
       <c r="X13" t="n">
-        <v>632.1797440177418</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="Y13" t="n">
-        <v>411.3871648742117</v>
+        <v>686.6979017231758</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5257,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.699401366028</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M14" t="n">
-        <v>2215.249704195857</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N14" t="n">
-        <v>2762.028521254639</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>3154.542034367489</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>2980.089005086362</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>2831.154595425111</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419655</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.38258244654</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789528</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317988</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.517670152511</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387557</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>410.7144041584436</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="C16" t="n">
-        <v>241.7782212305366</v>
+        <v>450.9198012134734</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7782212305366</v>
+        <v>450.9198012134734</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305366</v>
+        <v>303.0067076310803</v>
       </c>
       <c r="F16" t="n">
         <v>241.7782212305366</v>
@@ -5458,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1330.562169067191</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1041.144999030231</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>813.1554481322135</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y16" t="n">
-        <v>592.3628689886833</v>
+        <v>619.8559841413803</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5510,55 +5512,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>291.9947530764112</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>625.8141267662577</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1076.848340014667</v>
+        <v>1352.099436442224</v>
       </c>
       <c r="M17" t="n">
-        <v>2055.398642844495</v>
+        <v>2330.649739272053</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5625,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1120.662598458018</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E19" t="n">
         <v>653.6966825353827</v>
@@ -5665,10 +5667,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1688.928405025393</v>
       </c>
       <c r="U19" t="n">
-        <v>1674.827124689058</v>
+        <v>1688.928405025393</v>
       </c>
       <c r="V19" t="n">
-        <v>1674.827124689058</v>
+        <v>1434.243916819506</v>
       </c>
       <c r="W19" t="n">
-        <v>1385.409954652097</v>
+        <v>1434.243916819506</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.409954652097</v>
+        <v>1206.254365921488</v>
       </c>
       <c r="Y19" t="n">
-        <v>1164.617375508567</v>
+        <v>985.4617867779582</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>320.5615857958354</v>
       </c>
       <c r="K20" t="n">
-        <v>901.0652231938166</v>
+        <v>654.3809594856818</v>
       </c>
       <c r="L20" t="n">
-        <v>1352.099436442225</v>
+        <v>1518.899775139037</v>
       </c>
       <c r="M20" t="n">
-        <v>2330.649739272054</v>
+        <v>2497.450077968865</v>
       </c>
       <c r="N20" t="n">
-        <v>2877.428556330836</v>
+        <v>3044.228895027647</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5862,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3942.370854773036</v>
+        <v>827.5554641779659</v>
       </c>
       <c r="C22" t="n">
-        <v>3773.434671845129</v>
+        <v>658.619281250059</v>
       </c>
       <c r="D22" t="n">
-        <v>3623.318032432793</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E22" t="n">
-        <v>3475.4049388504</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F22" t="n">
-        <v>3328.51499135249</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G22" t="n">
-        <v>3160.812154727209</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H22" t="n">
-        <v>3014.594967945066</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I22" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>4612.919600245057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>4391.152984814583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>4391.152984814583</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>4391.152984814583</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W22" t="n">
-        <v>4391.152984814583</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="X22" t="n">
-        <v>4163.163433916566</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="Y22" t="n">
-        <v>3942.370854773036</v>
+        <v>943.1650632406976</v>
       </c>
     </row>
     <row r="23">
@@ -5984,25 +5986,25 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3783.446538019154</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107236</v>
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6099,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1120.662598458018</v>
+        <v>3626.544724347218</v>
       </c>
       <c r="C25" t="n">
-        <v>951.7264155301116</v>
+        <v>3626.544724347218</v>
       </c>
       <c r="D25" t="n">
-        <v>801.6097761177758</v>
+        <v>3476.428084934882</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>4496.535381004074</v>
       </c>
       <c r="U25" t="n">
-        <v>1674.827124689058</v>
+        <v>4207.432514129718</v>
       </c>
       <c r="V25" t="n">
-        <v>1674.827124689058</v>
+        <v>4028.985768320988</v>
       </c>
       <c r="W25" t="n">
-        <v>1674.827124689058</v>
+        <v>4028.985768320988</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.103642431788</v>
+        <v>4028.985768320988</v>
       </c>
       <c r="Y25" t="n">
-        <v>1302.311063288258</v>
+        <v>3808.193189177457</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>888.4135721382777</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1339.447785386687</v>
+        <v>1905.506714936591</v>
       </c>
       <c r="M26" t="n">
-        <v>2317.998088216515</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N26" t="n">
-        <v>3297.750360443162</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.722831322499</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917026</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789528</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>851.0327524903256</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="C28" t="n">
-        <v>682.0965695624187</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="D28" t="n">
-        <v>531.979930150083</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E28" t="n">
-        <v>384.0668365676898</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6406,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.890966501056</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W28" t="n">
-        <v>1253.473796464095</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="X28" t="n">
-        <v>1253.473796464095</v>
+        <v>970.38647015468</v>
       </c>
       <c r="Y28" t="n">
-        <v>1032.681217320565</v>
+        <v>815.5554043227345</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924161</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.86673817257</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844494</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903276</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6573,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3381.008514771621</v>
+        <v>3379.775168468997</v>
       </c>
       <c r="C31" t="n">
-        <v>3212.072331843714</v>
+        <v>3379.775168468997</v>
       </c>
       <c r="D31" t="n">
-        <v>3212.072331843714</v>
+        <v>3379.775168468997</v>
       </c>
       <c r="E31" t="n">
-        <v>3064.159238261321</v>
+        <v>3231.862074886603</v>
       </c>
       <c r="F31" t="n">
-        <v>2917.269290763411</v>
+        <v>3084.972127388693</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177248</v>
+        <v>4739.456067126657</v>
       </c>
       <c r="S31" t="n">
-        <v>4688.221265177248</v>
+        <v>4547.770182953484</v>
       </c>
       <c r="T31" t="n">
-        <v>4555.540767886256</v>
+        <v>4326.003567523009</v>
       </c>
       <c r="U31" t="n">
-        <v>4555.540767886256</v>
+        <v>4036.900700648653</v>
       </c>
       <c r="V31" t="n">
-        <v>4300.856279680369</v>
+        <v>3782.216212442766</v>
       </c>
       <c r="W31" t="n">
-        <v>4011.439109643408</v>
+        <v>3782.216212442766</v>
       </c>
       <c r="X31" t="n">
-        <v>3783.449558745391</v>
+        <v>3782.216212442766</v>
       </c>
       <c r="Y31" t="n">
-        <v>3562.656979601861</v>
+        <v>3561.423633299236</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3783.446538019154</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6810,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.3805104860112</v>
+        <v>488.8938622403219</v>
       </c>
       <c r="C34" t="n">
-        <v>413.3805104860112</v>
+        <v>319.9576793124151</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736754</v>
+        <v>169.8410399000793</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>169.8410399000793</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>169.8410399000793</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>169.8410399000793</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>169.8410399000793</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6895,13 +6897,13 @@
         <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>999.1036114208126</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>771.1140605227953</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y34" t="n">
-        <v>595.0289753162509</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
     <row r="35">
@@ -6914,67 +6916,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>901.065223193813</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1352.099436442222</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2330.649739272051</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2877.428556330833</v>
       </c>
       <c r="O35" t="n">
-        <v>3944.053400686433</v>
+        <v>3757.393206660288</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107234</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862916</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367486</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086359</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.154595425108</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419652</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446538</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279156</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917023</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318561</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>2611.451764789526</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>2978.149925102191</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324507</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878962</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012235</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505715</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.82648218357</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317985</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086243</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358041</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.517670152508</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387554</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3381.305953583171</v>
+        <v>3632.940467438045</v>
       </c>
       <c r="C37" t="n">
-        <v>3381.305953583171</v>
+        <v>3464.004284510138</v>
       </c>
       <c r="D37" t="n">
-        <v>3231.189314170835</v>
+        <v>3313.887645097803</v>
       </c>
       <c r="E37" t="n">
-        <v>3231.189314170835</v>
+        <v>3165.97455151541</v>
       </c>
       <c r="F37" t="n">
-        <v>3231.189314170835</v>
+        <v>3019.084604017499</v>
       </c>
       <c r="G37" t="n">
-        <v>3063.486477545554</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763412</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>2917.26929076341</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>2962.391923210346</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>3166.379106159222</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>3827.095950207267</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>4168.504326913132</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>4467.833925833545</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>4700.441426267204</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177249</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004075</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.768765573601</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="U37" t="n">
-        <v>3985.665898699244</v>
+        <v>4297.262971372189</v>
       </c>
       <c r="V37" t="n">
-        <v>3730.981410493358</v>
+        <v>4042.578483166302</v>
       </c>
       <c r="W37" t="n">
-        <v>3441.564240456397</v>
+        <v>4042.578483166302</v>
       </c>
       <c r="X37" t="n">
-        <v>3381.305953583171</v>
+        <v>3814.588932268285</v>
       </c>
       <c r="Y37" t="n">
-        <v>3381.305953583171</v>
+        <v>3814.588932268285</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176193</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846822</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2120.457898518746</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.236715577529</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906983</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353929</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419719</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7284,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>784.0235789048305</v>
+        <v>973.7726509601081</v>
       </c>
       <c r="C40" t="n">
-        <v>784.0235789048305</v>
+        <v>804.8364680322012</v>
       </c>
       <c r="D40" t="n">
-        <v>633.9069394924948</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E40" t="n">
-        <v>485.9938459101016</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F40" t="n">
-        <v>339.1038984121913</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
         <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839438</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7360,22 +7362,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1669.138661982505</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.138661982505</v>
+        <v>1410.105603996235</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.454173776618</v>
+        <v>1155.421115790348</v>
       </c>
       <c r="W40" t="n">
-        <v>1414.454173776618</v>
+        <v>1155.421115790348</v>
       </c>
       <c r="X40" t="n">
-        <v>1186.4646228786</v>
+        <v>1155.421115790348</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.6720437350702</v>
+        <v>1155.421115790348</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7406,55 +7408,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>298.7494956772313</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>953.4728278125308</v>
       </c>
       <c r="L41" t="n">
-        <v>1797.117834600129</v>
+        <v>1404.50704106094</v>
       </c>
       <c r="M41" t="n">
-        <v>2330.649739272054</v>
+        <v>2383.057343890768</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330836</v>
+        <v>3362.809616117415</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7509,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7518,22 +7520,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3922.352991503927</v>
+        <v>499.6351384500838</v>
       </c>
       <c r="C43" t="n">
-        <v>3773.434671845129</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="D43" t="n">
-        <v>3623.318032432793</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E43" t="n">
-        <v>3475.4049388504</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F43" t="n">
-        <v>3328.51499135249</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G43" t="n">
-        <v>3160.812154727209</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H43" t="n">
-        <v>3014.594967945066</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>4688.221265177249</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>4466.454649746775</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>4466.454649746775</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>4211.770161540888</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>3922.352991503927</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X43" t="n">
-        <v>3922.352991503927</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y43" t="n">
-        <v>3922.352991503927</v>
+        <v>681.2836032803235</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.440165407421</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427223</v>
       </c>
       <c r="L44" t="n">
-        <v>1898.858917622688</v>
+        <v>1670.68015753198</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294613</v>
+        <v>2649.230460361811</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>3196.009277420596</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750053</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107233</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,64 +7703,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973193</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161923</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.205333554941</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494856</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763705</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089886</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468562</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390124</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193607</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320276</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454345</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008802</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426858</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902963</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.662598458018</v>
+        <v>506.8321102045774</v>
       </c>
       <c r="C46" t="n">
-        <v>951.7264155301116</v>
+        <v>506.8321102045774</v>
       </c>
       <c r="D46" t="n">
-        <v>801.6097761177758</v>
+        <v>356.7154707922416</v>
       </c>
       <c r="E46" t="n">
-        <v>653.6966825353827</v>
+        <v>356.7154707922416</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>209.8255232943312</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953304</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442075</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927045</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.79607059812</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518534</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952194</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.34346610471</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862238</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689064</v>
       </c>
       <c r="T46" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258591</v>
       </c>
       <c r="U46" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384234</v>
       </c>
       <c r="V46" t="n">
-        <v>1577.410141987875</v>
+        <v>909.2731541783472</v>
       </c>
       <c r="W46" t="n">
-        <v>1287.992971950915</v>
+        <v>909.2731541783472</v>
       </c>
       <c r="X46" t="n">
-        <v>1287.992971950915</v>
+        <v>909.2731541783472</v>
       </c>
       <c r="Y46" t="n">
-        <v>1287.992971950915</v>
+        <v>688.4805750348171</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,13 +8534,13 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>314.5564971416987</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>411.0304280899001</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>285.0508825989992</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>7.630896635344783</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>285.6623071682317</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9182,10 +9184,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>36.48628322062171</v>
       </c>
       <c r="K20" t="n">
-        <v>285.6623071682325</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9638,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9653,7 +9655,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>295.4822118493975</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9875,19 +9877,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>103.7862464855135</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>351.4175304294036</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>288.0478149561023</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>246.454569480845</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10358,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>83.1672211894936</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>116.5656919961551</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>133.2530576400256</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>353.7642348290844</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>14.45386895940547</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>411.0304280899001</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>344.7025836476838</v>
+        <v>283.3156027685323</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>237.9101776666351</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>13.18197579352591</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>84.80484648639302</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>138.3749467384731</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>136.3167509018938</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>144.577064139093</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>65.3784771098329</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>26.28822437852466</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24418,16 +24420,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>75.47536497318515</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>75.50340795433985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>25.82611218385698</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>65.30189817846878</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>50.72245392991415</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>88.19525695808693</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>22.81521501267004</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.26041899761589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>161.5810685473179</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>166.0539513845433</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,10 +25560,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25600,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>124.9852185266339</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>154.7543293258398</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>19.81768463641754</v>
+        <v>8.986926569724716</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14.17491042397015</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>52.90396430155076</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143207</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983792</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.0891526798</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191727</v>
       </c>
       <c r="F2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="G2" t="n">
-        <v>635330.8590191732</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="H2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="I2" t="n">
-        <v>635330.8590191731</v>
+        <v>635330.8590191727</v>
       </c>
       <c r="J2" t="n">
         <v>635330.859019173</v>
@@ -26341,19 +26343,19 @@
         <v>635330.8590191727</v>
       </c>
       <c r="L2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="M2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="N2" t="n">
+        <v>635330.8590191731</v>
+      </c>
+      <c r="O2" t="n">
         <v>635330.8590191727</v>
       </c>
-      <c r="M2" t="n">
-        <v>635330.8590191731</v>
-      </c>
-      <c r="N2" t="n">
-        <v>635330.8590191727</v>
-      </c>
-      <c r="O2" t="n">
-        <v>635330.8590191734</v>
-      </c>
       <c r="P2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.859019173</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.270016921102069e-09</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26424,40 +26426,40 @@
         <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="K4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="I4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709186</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21619.60799709186</v>
-      </c>
       <c r="M4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.6079970919</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709192</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709167</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="I5" t="n">
+      <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
+        <v>96383.51825371363</v>
+      </c>
+      <c r="N5" t="n">
+        <v>96383.51825371363</v>
+      </c>
+      <c r="O5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="K5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="L5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="M5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="N5" t="n">
-        <v>96383.51825371366</v>
-      </c>
-      <c r="O5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371372</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208200.1377789568</v>
+        <v>-208200.1377789571</v>
       </c>
       <c r="C6" t="n">
-        <v>381767.7414355876</v>
+        <v>381767.7414355872</v>
       </c>
       <c r="D6" t="n">
-        <v>381767.7414355872</v>
+        <v>381767.7414355874</v>
       </c>
       <c r="E6" t="n">
-        <v>-210049.6812250393</v>
+        <v>-210049.6812250395</v>
       </c>
       <c r="F6" t="n">
         <v>517327.7327683673</v>
       </c>
       <c r="G6" t="n">
-        <v>517327.7327683677</v>
+        <v>517327.7327683674</v>
       </c>
       <c r="H6" t="n">
-        <v>517327.7327683675</v>
+        <v>517327.7327683674</v>
       </c>
       <c r="I6" t="n">
-        <v>517327.7327683676</v>
+        <v>517327.7327683673</v>
       </c>
       <c r="J6" t="n">
-        <v>340904.5135757746</v>
+        <v>340904.5135757744</v>
       </c>
       <c r="K6" t="n">
-        <v>517327.7327683673</v>
+        <v>517327.7327683672</v>
       </c>
       <c r="L6" t="n">
         <v>517327.7327683673</v>
       </c>
       <c r="M6" t="n">
-        <v>387685.4179294228</v>
+        <v>387685.4179294227</v>
       </c>
       <c r="N6" t="n">
-        <v>517327.7327683672</v>
+        <v>517327.7327683675</v>
       </c>
       <c r="O6" t="n">
-        <v>517327.7327683679</v>
+        <v>517327.7327683673</v>
       </c>
       <c r="P6" t="n">
-        <v>517327.7327683673</v>
+        <v>517327.7327683653</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26768,7 +26770,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593302</v>
       </c>
     </row>
     <row r="4">
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-12</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503742</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.6304984225245</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>207.1144498982877</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>33.18493406278921</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,22 +27590,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.25160475629417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>232.8879508820753</v>
       </c>
       <c r="H5" t="n">
-        <v>283.3558084808867</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>130.4086131396593</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>131.0703856053969</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>66.79419762293014</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>13.59785446923195</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28026,7 +28028,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.098177473245332</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,16 +28064,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>167.5316713728892</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30049,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30226,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32312,7 +32314,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32552,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33497,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33977,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34208,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681611</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844682</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974805</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054954</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003827</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623216</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490575019</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095048</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099083</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746433</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781704</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563578</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806982</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451126</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345289</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502574</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798538</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752282</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353169</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138812</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233493</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837943</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970268</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002941</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.215670698737</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905546</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.5396634623833</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898528</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.154213684046222</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430544</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311885</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742037</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297395</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702031</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098829</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316442</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883125</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.768002308601</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802177</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895886</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712242</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553047</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780298</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>54.37527471535621</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>822.6094980299179</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>866.6205424822323</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>793.1038834872184</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>198.4178976040573</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>741.2524215605639</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35902,10 +35904,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>227.2732841893343</v>
       </c>
       <c r="K20" t="n">
-        <v>622.853593723633</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36133,13 +36135,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36200,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36358,13 +36360,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
@@ -36373,7 +36375,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>694.2441980687694</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36595,19 +36597,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>440.977533040914</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>807.0076448217358</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36616,7 +36618,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>625.2391015115028</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>754.5075703690641</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
@@ -37078,19 +37080,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>481.9292074088655</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>453.7569785515557</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P35" t="n">
-        <v>532.0150438593975</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>809.3543492214166</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37625,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>205.240869928118</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>866.6205424822323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687138</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265669</v>
       </c>
       <c r="L44" t="n">
-        <v>800.2926980400159</v>
+        <v>738.9057171608666</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230616</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412914</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509669</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193738</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.794304803721</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222563</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597779</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609579</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134007</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901331</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.306104600461</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525824</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859639</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127155</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306668</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443203</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170199</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934848</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675411</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226406</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451112</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789417</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2795848.664807893</v>
+        <v>2790127.052840007</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836241</v>
+        <v>6654055.582836232</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095089</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.1033432409561</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>289.2392739317784</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>64.97237537407938</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>180.8962191387197</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,10 +952,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,28 +1056,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>26.3288200405003</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4.557008652678902</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>310.3249182951252</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>36.07330930379418</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>57.50343408519505</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>79.49505480544802</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>238.9556675303021</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>60.61620153653822</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>27.69690030288077</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>74.9718851370762</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>172.4209394294446</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>114.4535030721044</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>176.6622783506429</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>212.4848712141909</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.282755173626</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>38.20969874013318</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>148.5878566745417</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>73.53720539716805</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>4.444739711710331</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>131.457508879773</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292618</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247755</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734039871</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>158.2598945289031</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>37.38100496017169</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873203</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292541</v>
+        <v>41.57692977292618</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881755</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851108</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247718</v>
+        <v>18.81721868247755</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734093657</v>
+        <v>0.1429098734100478</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414545</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>113.1218439574775</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004706</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314418</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486434</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1359.546482223453</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="C2" t="n">
-        <v>990.5839652830418</v>
+        <v>1097.103316533935</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>738.8376179271843</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>353.04936532894</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>346.1038645797366</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1936.146930626913</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1562.681172365833</v>
+        <v>1873.842488573868</v>
       </c>
       <c r="Y2" t="n">
-        <v>1562.681172365833</v>
+        <v>1483.703156598056</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673418</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,22 +4439,22 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>766.0404291903644</v>
+        <v>1229.941371236148</v>
       </c>
       <c r="C5" t="n">
-        <v>397.0779122499527</v>
+        <v>1229.941371236148</v>
       </c>
       <c r="D5" t="n">
-        <v>397.0779122499527</v>
+        <v>871.6756726293977</v>
       </c>
       <c r="E5" t="n">
-        <v>397.0779122499527</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="F5" t="n">
-        <v>390.1324115007492</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.779601230298</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1152.640269254486</v>
+        <v>1229.941371236148</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104.2025452963401</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>104.2025452963401</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>104.2025452963401</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>104.2025452963401</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="F7" t="n">
-        <v>104.2025452963401</v>
+        <v>80.53774953804151</v>
       </c>
       <c r="G7" t="n">
-        <v>104.2025452963401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>104.2025452963401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>285.8510101265798</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>285.8510101265798</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1735.606436744359</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C8" t="n">
-        <v>1735.606436744359</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D8" t="n">
-        <v>1735.606436744359</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1349.818184146115</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>938.8322793565073</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>520.8684712546942</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2660.711404852774</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2406.949619490865</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2075.886732147294</v>
       </c>
       <c r="W8" t="n">
-        <v>2125.745768720171</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X8" t="n">
-        <v>2125.745768720171</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1735.606436744359</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.6275373157412</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>670.0447073527018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>670.0447073527018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>670.0447073527018</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>380.6275373157412</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.6275373157412</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2504.619866888352</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3051.398683947134</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5068,25 +5068,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>686.6979017231758</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C13" t="n">
-        <v>686.6979017231758</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D13" t="n">
-        <v>536.5812623108401</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>175.8590696054126</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>175.8590696054126</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5229,22 +5229,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799873</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1204.104622658154</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>914.6874526211932</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>686.6979017231758</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y13" t="n">
-        <v>686.6979017231758</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="14">
@@ -5266,34 +5266,34 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1797.117834600129</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2330.649739272054</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N14" t="n">
-        <v>2877.428556330836</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>619.8559841413803</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C16" t="n">
-        <v>450.9198012134734</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>450.9198012134734</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>303.0067076310803</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5469,19 +5469,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1425.083842285977</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1170.39935408009</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>880.9821840431298</v>
       </c>
       <c r="X16" t="n">
-        <v>619.8559841413803</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="Y16" t="n">
-        <v>619.8559841413803</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1352.099436442224</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2330.649739272053</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330835</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,58 +5570,58 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8133219477185</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C19" t="n">
-        <v>803.8133219477185</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D19" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F19" t="n">
         <v>506.8067350374723</v>
@@ -5667,10 +5667,10 @@
         <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1688.928405025393</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.928405025393</v>
+        <v>1278.897944178337</v>
       </c>
       <c r="V19" t="n">
-        <v>1434.243916819506</v>
+        <v>1024.21345597245</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.243916819506</v>
+        <v>734.7962859354897</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.254365921488</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.4617867779582</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,7 +5737,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5749,31 +5749,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>320.5615857958354</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>654.3809594856818</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1518.899775139037</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2497.450077968865</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3044.228895027647</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,16 +5849,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>827.5554641779659</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="C22" t="n">
-        <v>658.619281250059</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="D22" t="n">
-        <v>508.5026418377232</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="E22" t="n">
-        <v>360.5895482553301</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="G22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5946,16 +5946,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1163.957642384228</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1163.957642384228</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>1163.957642384228</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y22" t="n">
-        <v>943.1650632406976</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1390.197710791128</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>1923.729615463053</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>2903.481887689699</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>3783.446538019154</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3626.544724347218</v>
+        <v>728.5338801960603</v>
       </c>
       <c r="C25" t="n">
-        <v>3626.544724347218</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D25" t="n">
-        <v>3476.428084934882</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E25" t="n">
-        <v>3328.514991352489</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>3328.514991352489</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727208</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>4496.535381004074</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>4207.432514129718</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>4028.985768320988</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W25" t="n">
-        <v>4028.985768320988</v>
+        <v>949.3264593395904</v>
       </c>
       <c r="X25" t="n">
-        <v>4028.985768320988</v>
+        <v>949.3264593395904</v>
       </c>
       <c r="Y25" t="n">
-        <v>3808.193189177457</v>
+        <v>728.5338801960603</v>
       </c>
     </row>
     <row r="26">
@@ -6208,43 +6208,43 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686776</v>
       </c>
       <c r="L26" t="n">
-        <v>1905.506714936591</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M26" t="n">
-        <v>2439.038619608516</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>2985.817436667298</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
-        <v>3865.782086996753</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.18756580918</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6417,19 +6417,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1198.376021052697</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1198.376021052697</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>970.38647015468</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>815.5554043227345</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6457,7 +6457,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6466,16 +6466,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2782.232616025903</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3329.011433084685</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6545,10 +6545,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3379.775168468997</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="C31" t="n">
-        <v>3379.775168468997</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D31" t="n">
-        <v>3379.775168468997</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E31" t="n">
-        <v>3231.862074886603</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F31" t="n">
-        <v>3084.972127388693</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>2917.269290763412</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4739.456067126657</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4547.770182953484</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.003567523009</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>4036.900700648653</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>3782.216212442766</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>3782.216212442766</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>3782.216212442766</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="Y31" t="n">
-        <v>3561.423633299236</v>
+        <v>559.5976972681534</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>1923.729615463053</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2903.481887689699</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3783.446538019154</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320243</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>488.8938622403219</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>319.9576793124151</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>169.8410399000793</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>169.8410399000793</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>169.8410399000793</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>169.8410399000793</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>169.8410399000793</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>709.6864413838521</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>488.8938622403219</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,61 +6913,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>901.065223193813</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1352.099436442222</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2330.649739272051</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2877.428556330833</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660288</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107234</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862916</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604873</v>
@@ -6979,10 +6979,10 @@
         <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367486</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086359</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.154595425108</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419652</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279156</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917023</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318561</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102191</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324507</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.051722419719</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012235</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505715</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.82648218357</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317985</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086243</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358041</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.517670152508</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387554</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3632.940467438045</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>3464.004284510138</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>3313.887645097803</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>3165.97455151541</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>3019.084604017499</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.26929076341</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210346</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159222</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207267</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913132</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833545</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267204</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419719</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4778.051722419719</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4586.365838246546</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>4586.365838246546</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>4297.262971372189</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>4042.578483166302</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>4042.578483166302</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>3814.588932268285</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>3814.588932268285</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7165,61 +7165,61 @@
         <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1586.925993846822</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2120.457898518746</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.236715577529</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906983</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353929</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419719</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320243</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>973.7726509601081</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839438</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7365,19 +7365,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1410.105603996235</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1155.421115790348</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>1155.421115790348</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>1155.421115790348</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1155.421115790348</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7390,52 +7390,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089259</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>298.7494956772313</v>
+        <v>451.8458144277724</v>
       </c>
       <c r="K41" t="n">
-        <v>953.4728278125308</v>
+        <v>1106.569146563071</v>
       </c>
       <c r="L41" t="n">
-        <v>1404.50704106094</v>
+        <v>1557.603359811479</v>
       </c>
       <c r="M41" t="n">
-        <v>2383.057343890768</v>
+        <v>2091.135264483402</v>
       </c>
       <c r="N41" t="n">
-        <v>3362.809616117415</v>
+        <v>2637.914081542183</v>
       </c>
       <c r="O41" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232734</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
         <v>4667.761053946815</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390114</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.502502919358</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320226</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008791</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426845</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902947</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549546</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>499.6351384500838</v>
+        <v>301.0224619425358</v>
       </c>
       <c r="C43" t="n">
-        <v>339.7766591279594</v>
+        <v>301.0224619425358</v>
       </c>
       <c r="D43" t="n">
-        <v>339.7766591279594</v>
+        <v>301.0224619425358</v>
       </c>
       <c r="E43" t="n">
-        <v>339.7766591279594</v>
+        <v>301.0224619425358</v>
       </c>
       <c r="F43" t="n">
-        <v>192.886711630049</v>
+        <v>301.0224619425358</v>
       </c>
       <c r="G43" t="n">
-        <v>192.886711630049</v>
+        <v>133.3196253172547</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442058</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927015</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931527</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.657581931527</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1475.554715057171</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>1220.870226851284</v>
       </c>
       <c r="W43" t="n">
-        <v>909.2731541783409</v>
+        <v>931.453056814323</v>
       </c>
       <c r="X43" t="n">
-        <v>681.2836032803235</v>
+        <v>703.4635059163056</v>
       </c>
       <c r="Y43" t="n">
-        <v>681.2836032803235</v>
+        <v>482.6709267727755</v>
       </c>
     </row>
     <row r="44">
@@ -7627,73 +7627,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.440165407421</v>
+        <v>284.4401654074194</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427223</v>
+        <v>818.2062848686841</v>
       </c>
       <c r="L44" t="n">
-        <v>1670.68015753198</v>
+        <v>1682.725100522038</v>
       </c>
       <c r="M44" t="n">
-        <v>2649.230460361811</v>
+        <v>2216.257005193961</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420596</v>
+        <v>3196.009277420606</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750053</v>
+        <v>4075.97392775006</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107233</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,64 +7703,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973193</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161923</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.205333554941</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494856</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763705</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089886</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468562</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390124</v>
+        <v>189.2383039390114</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193607</v>
+        <v>427.502502919358</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320276</v>
+        <v>794.2006632320226</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454345</v>
+        <v>1241.476988454338</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008802</v>
+        <v>1715.000032008791</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426858</v>
+        <v>2125.961311426845</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902963</v>
+        <v>2436.460902902947</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>506.8321102045774</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>506.8321102045774</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>356.7154707922416</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>356.7154707922416</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>209.8255232943312</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953304</v>
+        <v>140.6836668953298</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442075</v>
+        <v>344.6708498442058</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927045</v>
+        <v>661.2306482927015</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892254</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.79607059812</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518534</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952194</v>
+        <v>1878.733169952186</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.34346610471</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862238</v>
+        <v>1956.343466104701</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689064</v>
+        <v>1764.657581931527</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258591</v>
+        <v>1542.890966501053</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384234</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783472</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>909.2731541783472</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>909.2731541783472</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>688.4805750348171</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>221.0467526719084</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>314.5564971416987</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>411.0304280899001</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>77.3579543087709</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>285.6623071682317</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>36.48628322062171</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,13 +9640,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9655,7 +9655,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>295.4822118493975</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701124</v>
       </c>
       <c r="L26" t="n">
-        <v>351.4175304294036</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10123,10 +10123,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>246.454569480845</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10351,25 +10351,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>83.1672211894936</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10588,28 +10588,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>116.5656919961551</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>353.7642348290844</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>14.45386895940547</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,22 +11068,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476912</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>6.060651980277498e-12</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,16 +11299,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701203</v>
       </c>
       <c r="L44" t="n">
-        <v>283.3156027685323</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>86.5307534535802</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23469,13 +23469,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>13.18197579352591</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>84.80484648639302</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>258.5149379027321</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>144.577064139093</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.3784771098329</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>45.39044159700435</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>75.47536497318515</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>74.03812712240011</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>65.30189817846878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>50.72245392991415</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>77.1217987144955</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>22.81521501267004</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>161.5810685473179</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>154.7543293258398</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>8.986926569724716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>107.3740099541491</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983817</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004746</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>52.90396430155076</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143207</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983792</v>
+        <v>96.35242040983817</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004746</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>16.14213605696949</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775282.0891526798</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="12">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="C2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914265</v>
-      </c>
-      <c r="C2" t="n">
-        <v>656833.4158914264</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
         <v>635330.8590191727</v>
       </c>
       <c r="F2" t="n">
+        <v>635330.859019173</v>
+      </c>
+      <c r="G2" t="n">
+        <v>635330.859019173</v>
+      </c>
+      <c r="H2" t="n">
+        <v>635330.8590191726</v>
+      </c>
+      <c r="I2" t="n">
         <v>635330.8590191728</v>
       </c>
-      <c r="G2" t="n">
-        <v>635330.8590191728</v>
-      </c>
-      <c r="H2" t="n">
-        <v>635330.8590191728</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>635330.8590191727</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>635330.859019173</v>
-      </c>
-      <c r="K2" t="n">
-        <v>635330.8590191727</v>
       </c>
       <c r="L2" t="n">
         <v>635330.8590191728</v>
@@ -26349,13 +26349,13 @@
         <v>635330.8590191728</v>
       </c>
       <c r="N2" t="n">
-        <v>635330.8590191731</v>
+        <v>635330.859019173</v>
       </c>
       <c r="O2" t="n">
+        <v>635330.8590191725</v>
+      </c>
+      <c r="P2" t="n">
         <v>635330.8590191727</v>
-      </c>
-      <c r="P2" t="n">
-        <v>635330.859019173</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.270016921102069e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924297</v>
@@ -26426,7 +26426,7 @@
         <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
         <v>21619.60799709188</v>
@@ -26435,10 +26435,10 @@
         <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709187</v>
@@ -26447,19 +26447,19 @@
         <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.6079970919</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709192</v>
+        <v>21619.60799709182</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.607997092</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709167</v>
+        <v>21619.60799709197</v>
       </c>
     </row>
     <row r="5">
@@ -26484,13 +26484,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26499,19 +26499,19 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371363</v>
-      </c>
       <c r="N5" t="n">
-        <v>96383.51825371363</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371361</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371372</v>
+        <v>96383.51825371361</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208200.1377789571</v>
+        <v>-208200.137778957</v>
       </c>
       <c r="C6" t="n">
-        <v>381767.7414355872</v>
+        <v>381767.7414355874</v>
       </c>
       <c r="D6" t="n">
-        <v>381767.7414355874</v>
+        <v>381767.7414355873</v>
       </c>
       <c r="E6" t="n">
-        <v>-210049.6812250395</v>
+        <v>-210721.6361272975</v>
       </c>
       <c r="F6" t="n">
-        <v>517327.7327683673</v>
+        <v>516655.7778661095</v>
       </c>
       <c r="G6" t="n">
-        <v>517327.7327683674</v>
+        <v>516655.7778661095</v>
       </c>
       <c r="H6" t="n">
-        <v>517327.7327683674</v>
+        <v>516655.7778661092</v>
       </c>
       <c r="I6" t="n">
-        <v>517327.7327683673</v>
+        <v>516655.7778661094</v>
       </c>
       <c r="J6" t="n">
-        <v>340904.5135757744</v>
+        <v>340232.5586735163</v>
       </c>
       <c r="K6" t="n">
-        <v>517327.7327683672</v>
+        <v>516655.7778661095</v>
       </c>
       <c r="L6" t="n">
-        <v>517327.7327683673</v>
+        <v>516655.7778661094</v>
       </c>
       <c r="M6" t="n">
-        <v>387685.4179294227</v>
+        <v>387013.4630271645</v>
       </c>
       <c r="N6" t="n">
-        <v>517327.7327683675</v>
+        <v>516655.7778661095</v>
       </c>
       <c r="O6" t="n">
-        <v>517327.7327683673</v>
+        <v>516655.77786611</v>
       </c>
       <c r="P6" t="n">
-        <v>517327.7327683653</v>
+        <v>516655.7778661092</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26770,16 +26770,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593302</v>
+        <v>1089.776700593297</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-5.506578843303772e-13</v>
       </c>
       <c r="P3" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.6304984225245</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>124.5448960890166</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>33.18493406278921</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263384</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>316.9579946981824</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>232.8879508820753</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27776,28 +27776,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>140.9809822185506</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>130.4086131396593</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>13.59785446923195</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>180.3750110538636</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>44.65327491702013</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>167.5316713728892</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31840,7 +31840,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -32314,7 +32314,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32788,10 +32788,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33499,13 +33499,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681592</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844661</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974797</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953983</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003801</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623184</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574983</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095012</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099048</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746404</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781683</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563565</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806937</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451118</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345272</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502563</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798528</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752245</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353151</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233466</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837916</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970242</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002921</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987482</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905539</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.5396634623831</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898485</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430535</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311877</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174201</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297388</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702021</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098816</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316428</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.724773788311</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085997</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802166</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895878</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712203</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553031</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112283</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681611</v>
+        <v>4.381011861681592</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844682</v>
+        <v>44.86703772844661</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974805</v>
+        <v>168.8989597974797</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054954</v>
+        <v>371.8329054953983</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003827</v>
+        <v>557.2811376003801</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623216</v>
+        <v>691.3565293623184</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490575019</v>
+        <v>769.2673490574983</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095048</v>
+        <v>781.7148990095012</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099083</v>
+        <v>738.1512123099048</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746433</v>
+        <v>629.9949819746404</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781704</v>
+        <v>473.0999946781683</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563565</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806982</v>
+        <v>99.83230779806937</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451126</v>
+        <v>19.17787942451118</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345289</v>
+        <v>0.3504809489345272</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502574</v>
+        <v>2.344047997502563</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798538</v>
+        <v>22.63856881798528</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752282</v>
+        <v>80.70516131752245</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026435</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353169</v>
+        <v>378.5123470353151</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138812</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233493</v>
+        <v>593.9283018233466</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837943</v>
+        <v>609.6478166837916</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970268</v>
+        <v>557.7086478970242</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002941</v>
+        <v>447.6103584002921</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.215670698737</v>
+        <v>299.215670698754</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905546</v>
+        <v>145.5365940905539</v>
       </c>
       <c r="S45" t="n">
-        <v>43.5396634623833</v>
+        <v>43.5396634623831</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898528</v>
+        <v>9.448158375898485</v>
       </c>
       <c r="U45" t="n">
-        <v>0.154213684046222</v>
+        <v>0.1542136840462213</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430544</v>
+        <v>1.965171099430535</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311885</v>
+        <v>17.47215759311877</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742037</v>
+        <v>59.0980545174201</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297395</v>
+        <v>138.9375967297388</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702031</v>
+        <v>228.3171513702021</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098829</v>
+        <v>292.1673469098816</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316442</v>
+        <v>308.0495024316428</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883125</v>
+        <v>300.724773788311</v>
       </c>
       <c r="O46" t="n">
-        <v>277.768002308601</v>
+        <v>277.7680023085997</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802177</v>
+        <v>237.6785118802166</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895886</v>
+        <v>164.5562817895878</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712242</v>
+        <v>88.36123870712203</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553047</v>
+        <v>34.24757270553031</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112322</v>
+        <v>8.396640152112283</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780298</v>
+        <v>0.1071911508780293</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>822.6094980299179</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>866.6205424822323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>585.41095519699</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>741.2524215605639</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>227.2732841893343</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36144,7 +36144,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36360,13 +36360,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
@@ -36375,7 +36375,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>694.2441980687694</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255129</v>
       </c>
       <c r="L26" t="n">
-        <v>807.0076448217358</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
@@ -36615,7 +36615,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36834,7 +36834,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
@@ -36843,10 +36843,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>754.5075703690641</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37071,25 +37071,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>481.9292074088655</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>453.7569785515557</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509647</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,10 +37545,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>809.3543492214166</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,7 +37557,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37566,7 +37566,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>205.240869928118</v>
+        <v>359.8836161407858</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265643</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923311</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302256</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129103</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359093</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908535</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636235</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152068</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597718</v>
+        <v>94.62350453597679</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609562</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013283</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004583</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525798</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859618</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127267</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306603</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443192</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701978</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934834</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675396</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226394</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451101</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.3942385378934</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687138</v>
+        <v>190.7870009687121</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265669</v>
+        <v>539.1576964255199</v>
       </c>
       <c r="L44" t="n">
-        <v>738.9057171608666</v>
+        <v>873.2513289427816</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230616</v>
+        <v>538.9211158302256</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412914</v>
+        <v>989.6487598248945</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509669</v>
+        <v>888.8531821509634</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193738</v>
+        <v>398.7619862193708</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.794304803721</v>
+        <v>250.7943048037188</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222563</v>
+        <v>59.61319854222438</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597779</v>
+        <v>94.62350453597679</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609579</v>
+        <v>240.6709080609562</v>
       </c>
       <c r="L45" t="n">
-        <v>370.402182134007</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901331</v>
+        <v>451.7942679013283</v>
       </c>
       <c r="N45" t="n">
-        <v>478.306104600461</v>
+        <v>478.3061046004583</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525824</v>
+        <v>415.1124034525798</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859639</v>
+        <v>313.6359509859618</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127155</v>
+        <v>159.2338966127325</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306668</v>
+        <v>45.57841661306603</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443203</v>
+        <v>206.0476595443192</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170199</v>
+        <v>319.7573721701978</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934848</v>
+        <v>347.6333793934834</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675411</v>
+        <v>344.8569461675396</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226406</v>
+        <v>302.3531302226394</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451112</v>
+        <v>234.9570711451101</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789417</v>
+        <v>78.3942385378934</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2790127.052840007</v>
+        <v>2793532.543964457</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836232</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095091</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,10 +670,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>133.5065782393455</v>
       </c>
       <c r="G2" t="n">
-        <v>289.2392739317784</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>129.0246247964033</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>64.97237537407938</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>235.8588934499582</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>9.728248008472455</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>26.3288200405003</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>83.85112090809152</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>36.07330930379418</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>101.780687729549</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>122.5935461816077</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292658</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>79.49505480544802</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>107.870412813975</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>27.69690030288077</v>
+        <v>181.1375494785999</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>172.4209394294446</v>
+        <v>126.5660981224325</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>120.6353666620239</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2535,16 +2535,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>212.4848712141909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>181.1375494785995</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>148.5878566745417</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>36.41670903610104</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744762</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292618</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247755</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734039871</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>37.38100496017169</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>228.1216279925181</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292618</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247755</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734100478</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.769025331442</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>270.0697021486434</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1097.103316533935</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C2" t="n">
-        <v>1097.103316533935</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D2" t="n">
-        <v>738.8376179271843</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E2" t="n">
-        <v>353.04936532894</v>
+        <v>202.721515416466</v>
       </c>
       <c r="F2" t="n">
-        <v>346.1038645797366</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573868</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1483.703156598056</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673418</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,13 +4439,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207637</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551153</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>184.2708856551153</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1229.941371236148</v>
+        <v>1461.147548391485</v>
       </c>
       <c r="C5" t="n">
-        <v>1229.941371236148</v>
+        <v>1461.147548391485</v>
       </c>
       <c r="D5" t="n">
-        <v>871.6756726293977</v>
+        <v>1102.881849784735</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353781</v>
+        <v>717.0935971864903</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861747</v>
+        <v>710.1480964372869</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>292.1842883354738</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X5" t="n">
-        <v>1620.08070321196</v>
+        <v>1851.286880367297</v>
       </c>
       <c r="Y5" t="n">
-        <v>1229.941371236148</v>
+        <v>1461.147548391485</v>
       </c>
     </row>
     <row r="6">
@@ -4643,13 +4643,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>688.885551920185</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359519</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>227.4276970359519</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>80.53774953804151</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>959.5129866402885</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>152.5644878091387</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>138.6410837477296</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2660.711404852774</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2406.949619490865</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2075.886732147294</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1723.11807687718</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1349.6523186161</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>959.5129866402885</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4941,16 +4941,16 @@
         <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D10" t="n">
-        <v>156.7517573047574</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>177.7748466502712</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>177.7748466502712</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5020,49 +5020,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1014.851249206415</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1465.885462454823</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>1999.417367126748</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390112</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.7083461157126</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="C13" t="n">
-        <v>323.7721631878057</v>
+        <v>803.8133219477185</v>
       </c>
       <c r="D13" t="n">
-        <v>323.7721631878057</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E13" t="n">
-        <v>175.8590696054126</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>175.8590696054126</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,16 +5202,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1757.552995918823</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1757.552995918823</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024461</v>
+        <v>1502.868507712936</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.1389409875</v>
+        <v>1213.451337675976</v>
       </c>
       <c r="X13" t="n">
-        <v>895.1493900894825</v>
+        <v>985.4617867779582</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.3568109459524</v>
+        <v>985.4617867779582</v>
       </c>
     </row>
     <row r="14">
@@ -5257,49 +5257,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K14" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2949.638265046256</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3496.417082105038</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.23381931859</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5317,7 +5317,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5348,22 +5348,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5372,7 +5372,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902953</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5439,16 +5439,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
         <v>1646.12566951853</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U16" t="n">
-        <v>1425.083842285977</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1170.39935408009</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>880.9821840431298</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>652.9926331451124</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>432.2000540015823</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5506,34 +5506,34 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4302.335344088783</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468563</v>
@@ -5600,16 +5600,16 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
         <v>2436.460902902952</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.8067350374723</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C19" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1278.897944178337</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V19" t="n">
-        <v>1024.21345597245</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W19" t="n">
-        <v>734.7962859354897</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X19" t="n">
-        <v>506.8067350374723</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.8067350374723</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
@@ -5831,10 +5831,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320242</v>
@@ -5849,22 +5849,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>217.4149401676105</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>217.4149401676105</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>217.4149401676105</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>217.4149401676105</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>217.4149401676105</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>619.8559841413803</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>399.0634049978502</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6071,10 +6071,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.5338801960603</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>559.5976972681534</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1163.957642384228</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>949.3264593395904</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>949.3264593395904</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.5338801960603</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
@@ -6217,61 +6217,61 @@
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>818.2062848686776</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.238303939012</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6417,19 +6417,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6481,34 +6481,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.5976972681534</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>559.5976972681534</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6663,10 +6663,10 @@
         <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>559.5976972681534</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>559.5976972681534</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,22 +6809,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366029</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3629.948228594055</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4343.303316041001</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6964,25 +6964,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468568</v>
@@ -7016,19 +7016,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,7 +7046,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7055,13 +7055,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7098,16 +7098,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1919.558911522784</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1727.87302734961</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1506.106411919136</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1217.00354504478</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>962.3190568388932</v>
       </c>
       <c r="W37" t="n">
-        <v>709.6864413838521</v>
+        <v>672.9018868019325</v>
       </c>
       <c r="X37" t="n">
-        <v>481.6968904858347</v>
+        <v>444.9123359039152</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.9043113423046</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888615</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390112</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7335,16 +7335,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7359,10 +7359,10 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U40" t="n">
         <v>1270.093287563029</v>
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089259</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277724</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563071</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811479</v>
+        <v>1803.682313196075</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483402</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542183</v>
+        <v>3316.966490094646</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232734</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679679</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7438,25 +7438,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390114</v>
+        <v>189.2383039390112</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919358</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320226</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454338</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008791</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426845</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902947</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549546</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>301.0224619425358</v>
+        <v>806.069814334827</v>
       </c>
       <c r="C43" t="n">
-        <v>301.0224619425358</v>
+        <v>637.1336314069201</v>
       </c>
       <c r="D43" t="n">
-        <v>301.0224619425358</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="E43" t="n">
-        <v>301.0224619425358</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F43" t="n">
-        <v>301.0224619425358</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G43" t="n">
-        <v>133.3196253172547</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442058</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927015</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931527</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.657581931527</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1475.554715057171</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V43" t="n">
-        <v>1220.870226851284</v>
+        <v>1725.917579243575</v>
       </c>
       <c r="W43" t="n">
-        <v>931.453056814323</v>
+        <v>1436.500409206614</v>
       </c>
       <c r="X43" t="n">
-        <v>703.4635059163056</v>
+        <v>1208.510858308597</v>
       </c>
       <c r="Y43" t="n">
-        <v>482.6709267727755</v>
+        <v>987.7182791650667</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551623</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001588</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074194</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>818.2062848686841</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1682.725100522038</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193961</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420606</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.97392775006</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390114</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919358</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320226</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454338</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008791</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426845</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902947</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7806,37 +7806,37 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442058</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927015</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598114</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.657581931527</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501053</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
         <v>1270.093287563029</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>231.5010718068635</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,25 +8932,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>77.3579543087709</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>176.2173930448422</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>104.3976710547479</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10597,16 +10597,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>63.01588120402229</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570117</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476912</v>
+        <v>192.9047586887094</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.060651980277498e-12</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>201.9664098701203</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>86.5307534535802</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>111.6785364621942</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>258.5149379027321</v>
+        <v>105.0742887270129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>113.7908987761683</v>
+        <v>159.6457400831803</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>45.39044159700435</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>74.03812712240011</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>77.1217987144955</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>52.51544363394628</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696571</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>107.3740099541491</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983817</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004746</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>24.01601533130994</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983817</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004746</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>16.14213605696949</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775282.0891526799</v>
+        <v>775282.08915268</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775282.08915268</v>
+        <v>775282.0891526799</v>
       </c>
     </row>
     <row r="12">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.8590191732</v>
       </c>
       <c r="F2" t="n">
         <v>635330.859019173</v>
       </c>
       <c r="G2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="H2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="I2" t="n">
         <v>635330.859019173</v>
       </c>
-      <c r="H2" t="n">
-        <v>635330.8590191726</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>635330.859019173</v>
+      </c>
+      <c r="K2" t="n">
         <v>635330.8590191728</v>
-      </c>
-      <c r="J2" t="n">
-        <v>635330.8590191727</v>
-      </c>
-      <c r="K2" t="n">
-        <v>635330.859019173</v>
       </c>
       <c r="L2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="M2" t="n">
+        <v>635330.8590191733</v>
+      </c>
+      <c r="N2" t="n">
+        <v>635330.8590191726</v>
+      </c>
+      <c r="O2" t="n">
         <v>635330.8590191728</v>
-      </c>
-      <c r="N2" t="n">
-        <v>635330.859019173</v>
-      </c>
-      <c r="O2" t="n">
-        <v>635330.8590191725</v>
       </c>
       <c r="P2" t="n">
         <v>635330.8590191727</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.314838945</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="C4" t="n">
+        <v>192206.5963924298</v>
+      </c>
+      <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
-      <c r="C4" t="n">
-        <v>192206.5963924297</v>
-      </c>
-      <c r="D4" t="n">
-        <v>192206.5963924298</v>
-      </c>
       <c r="E4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="G4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="F4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="J4" t="n">
         <v>21619.60799709186</v>
       </c>
-      <c r="I4" t="n">
-        <v>21619.60799709188</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="K4" t="n">
-        <v>21619.60799709188</v>
-      </c>
       <c r="L4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21619.60799709181</v>
+      </c>
+      <c r="O4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="P4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709182</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.607997092</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21619.60799709197</v>
       </c>
     </row>
     <row r="5">
@@ -26493,10 +26493,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208200.137778957</v>
+        <v>-208200.1377789573</v>
       </c>
       <c r="C6" t="n">
         <v>381767.7414355874</v>
       </c>
       <c r="D6" t="n">
-        <v>381767.7414355873</v>
+        <v>381767.7414355876</v>
       </c>
       <c r="E6" t="n">
-        <v>-210721.6361272975</v>
+        <v>-210116.876715265</v>
       </c>
       <c r="F6" t="n">
-        <v>516655.7778661095</v>
+        <v>517260.5372781417</v>
       </c>
       <c r="G6" t="n">
-        <v>516655.7778661095</v>
+        <v>517260.5372781418</v>
       </c>
       <c r="H6" t="n">
-        <v>516655.7778661092</v>
+        <v>517260.5372781415</v>
       </c>
       <c r="I6" t="n">
-        <v>516655.7778661094</v>
+        <v>517260.5372781417</v>
       </c>
       <c r="J6" t="n">
-        <v>340232.5586735163</v>
+        <v>340837.3180855488</v>
       </c>
       <c r="K6" t="n">
-        <v>516655.7778661095</v>
+        <v>517260.5372781416</v>
       </c>
       <c r="L6" t="n">
-        <v>516655.7778661094</v>
+        <v>517260.5372781416</v>
       </c>
       <c r="M6" t="n">
-        <v>387013.4630271645</v>
+        <v>387618.222439197</v>
       </c>
       <c r="N6" t="n">
-        <v>516655.7778661095</v>
+        <v>517260.5372781413</v>
       </c>
       <c r="O6" t="n">
-        <v>516655.77786611</v>
+        <v>517260.5372781415</v>
       </c>
       <c r="P6" t="n">
-        <v>516655.7778661092</v>
+        <v>517260.5372781415</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26770,16 +26770,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="P3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1089.776700593297</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1089.776700593297</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,13 +26992,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-5.506578843303772e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>273.3694675023659</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>124.5448960890166</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27593,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>96.68503059263384</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>316.9579946981824</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>88.06387931439895</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>170.1037321734648</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>140.9809822185506</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>240.0716518562656</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>180.3750110538636</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>44.65327491702013</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>44.71625607744321</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>-1.094235813070554e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32788,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33505,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681592</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844661</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974797</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953983</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003801</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574983</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095012</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099048</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746404</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781683</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563565</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806937</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451118</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345272</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752245</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353151</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233466</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837916</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970242</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002921</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987482</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.5396634623831</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898485</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430535</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311877</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174201</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297388</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098816</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316428</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.724773788311</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023085997</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802166</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895878</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712203</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553031</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112283</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681592</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844661</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974797</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003801</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574983</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095012</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099048</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746404</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781683</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563565</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806937</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451118</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345272</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502563</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798528</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752245</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353151</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138789</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233466</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837916</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970242</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002921</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.215670698754</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905539</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.5396634623831</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898485</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462213</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430535</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311877</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174201</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297388</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702021</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098816</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316428</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.724773788311</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085997</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802166</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895878</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712203</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553031</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112283</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780293</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>568.6923583622641</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597659</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>585.41095519699</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>427.0116978485618</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>355.1919758584674</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36913,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>313.8101860077419</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257243</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597659</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407858</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265643</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923311</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302256</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129103</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359093</v>
+        <v>700.9577595769288</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908535</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636235</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152068</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597679</v>
+        <v>94.62350453597659</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609562</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013283</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004583</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525798</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859618</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127267</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306603</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443192</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701978</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934834</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675396</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226394</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451101</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.3942385378934</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687121</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>539.1576964255199</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427816</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302256</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248945</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509634</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193708</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037188</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222438</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597679</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609562</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340047</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013283</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004583</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525798</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859618</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127325</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306603</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443192</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701978</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934834</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675396</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226394</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451101</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.3942385378934</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
